--- a/53. New_Hire_Assignment_Problem.xlsx
+++ b/53. New_Hire_Assignment_Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC20A66-BCCA-4C51-9FC9-18D408BD31F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DA18A9-3188-4062-8790-F11AA1B19B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A821D1B-3040-4602-ABEB-E1E84CB6BDE4}"/>
   </bookViews>
@@ -16,6 +16,41 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="problem_statement" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$E$12:$H$14</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_lhs1" localSheetId="0" hidden="1">Sheet1!$E$15:$H$15</definedName>
+    <definedName name="solver_lhs2" localSheetId="0" hidden="1">Sheet1!$I$12:$I$14</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$D$22</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel2" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rhs1" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rhs2" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -37,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
   <si>
     <t>New Hire Assignment Problem:</t>
   </si>
@@ -61,13 +96,52 @@
   </si>
   <si>
     <t>New York</t>
+  </si>
+  <si>
+    <t>Cost Table:</t>
+  </si>
+  <si>
+    <t>Assignment Table:</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>RHS</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>&lt;=</t>
+  </si>
+  <si>
+    <t>Objective: (Min)</t>
+  </si>
+  <si>
+    <t>Total Cost:</t>
+  </si>
+  <si>
+    <t>Result:</t>
+  </si>
+  <si>
+    <t>The company should send JONES to MIAMI.</t>
+  </si>
+  <si>
+    <t>The company should send SMITH to NEW YORK.</t>
+  </si>
+  <si>
+    <t>The compnay should send WILSON to OMAHA.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -83,16 +157,36 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -124,18 +218,168 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Heading 1" xfId="1" builtinId="16"/>
@@ -552,15 +796,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20CA1EB1-3605-4D9C-86A4-548EEBEAC0EE}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="S19" sqref="S19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="20.399999999999999" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -568,7 +815,276 @@
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D5" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>800</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1100</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1200</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1000</v>
+      </c>
+      <c r="I5" s="13"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4">
+        <v>500</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1600</v>
+      </c>
+      <c r="G6" s="4">
+        <v>1300</v>
+      </c>
+      <c r="H6" s="9">
+        <v>800</v>
+      </c>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11">
+        <v>500</v>
+      </c>
+      <c r="F7" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G7" s="11">
+        <v>2300</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1500</v>
+      </c>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="K11" s="18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" s="14">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="15">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <f>SUM(E12:H12)</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D13" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" s="14">
+        <v>0</v>
+      </c>
+      <c r="F13" s="14">
+        <v>0</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1</v>
+      </c>
+      <c r="I13" s="2">
+        <f t="shared" ref="I13:I14" si="0">SUM(E13:H13)</f>
+        <v>1</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D14" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="17">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="2">
+        <f>SUM(E12:E14)</f>
+        <v>1</v>
+      </c>
+      <c r="F15" s="2">
+        <f t="shared" ref="F15:H15" si="1">SUM(F12:F14)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="D17" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>1</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="M17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="M20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="19">
+        <f>SUMPRODUCT(E5:H7,E12:H14)</f>
+        <v>2400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -579,73 +1095,73 @@
   <dimension ref="C7:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C7" sqref="C7:G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="7" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="3">
+      <c r="C8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
         <v>800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="4">
         <v>1100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="4">
         <v>1200</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="9" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="4">
         <v>500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="4">
         <v>1600</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="4">
         <v>1300</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="4">
         <v>800</v>
       </c>
     </row>
     <row r="10" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="4">
         <v>500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="4">
         <v>1000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="4">
         <v>2300</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="4">
         <v>1500</v>
       </c>
     </row>

--- a/53. New_Hire_Assignment_Problem.xlsx
+++ b/53. New_Hire_Assignment_Problem.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pvipi\Desktop\VIP_GitHub\MS-Excel_Learning_Journey\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DA18A9-3188-4062-8790-F11AA1B19B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEE72A6B-B34F-4FAC-9FA5-934E83C86AB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6A821D1B-3040-4602-ABEB-E1E84CB6BDE4}"/>
   </bookViews>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>New Hire Assignment Problem:</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>The compnay should send WILSON to OMAHA.</t>
+  </si>
+  <si>
+    <t>The total relocation cost is $2400.</t>
   </si>
 </sst>
 </file>
@@ -799,7 +802,7 @@
   <dimension ref="A1:M22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S19" sqref="S19"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1074,6 +1077,9 @@
     <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>15</v>
+      </c>
+      <c r="M21" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
